--- a/data/income_statement/1digit/size/A_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/A_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>A-Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>A-Agriculture, forestry and fishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1139073.34221</v>
+        <v>1073644.71244</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1692423.55326</v>
+        <v>1574418.28247</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2714111.3396</v>
+        <v>2684183.131890001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3463233.8011</v>
+        <v>3311868.75884</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3628470.360170001</v>
+        <v>3655194.84982</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4540610.939099999</v>
+        <v>4334993.795489999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5691541.162079999</v>
+        <v>5527619.80981</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>6615815.54817</v>
+        <v>6492487.1763</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10083332.24492</v>
+        <v>8485336.775669999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10034370.36449</v>
+        <v>9855970.800150001</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12117494.8971</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11651802.3029</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15609978.362</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1015306.50058</v>
+        <v>952082.56007</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1525505.484</v>
+        <v>1425382.70282</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2462218.58826</v>
+        <v>2450566.62504</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3176956.676840001</v>
+        <v>3031663.119959999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3338627.7048</v>
+        <v>3281820.0977</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4191783.00988</v>
+        <v>4001974.10123</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5332828.705809999</v>
+        <v>5173171.397429999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6204079.972220001</v>
+        <v>6111722.05003</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>9304118.722970001</v>
+        <v>7702398.709689999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>8807231.987670001</v>
+        <v>8597129.91516</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10824156.6991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10368294.77584</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14191186.123</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>87308.45450000001</v>
+        <v>86035.19380999998</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>126612.13382</v>
+        <v>112923.08825</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>190672.18128</v>
+        <v>185981.18881</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>219029.23747</v>
+        <v>221299.36548</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>221396.792</v>
+        <v>302442.60116</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>268101.67992</v>
+        <v>265952.03723</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>218890.70661</v>
+        <v>218278.20719</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>293163.20588</v>
+        <v>277476.37865</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>631608.61354</v>
+        <v>641156.9443000001</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1077431.4463</v>
+        <v>1119324.5541</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1080000.54885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1078667.54791</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1096472.135</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>36458.38713</v>
+        <v>35526.95856</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>40305.93544</v>
+        <v>36112.4914</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>61220.57006000001</v>
+        <v>47635.31804</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>67247.88678999999</v>
+        <v>58906.27339999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>68445.86337000001</v>
+        <v>70932.15096</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>80726.2493</v>
+        <v>67067.65703</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>139821.74966</v>
+        <v>136170.20519</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>118572.37007</v>
+        <v>103288.74762</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>147604.90841</v>
+        <v>141781.12168</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>149706.93052</v>
+        <v>139516.33089</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>213337.64915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>204839.97915</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>322320.104</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>18449.67333</v>
+        <v>20936.98137999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>23638.53503000001</v>
+        <v>25773.22045</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>18067.41307</v>
+        <v>19100.25955</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>32856.67576</v>
+        <v>26632.48777</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>30330.70671</v>
+        <v>33412.52786</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>35517.79930000001</v>
+        <v>42704.24014</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>38131.83105000001</v>
+        <v>57483.90231</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>66610.97828</v>
+        <v>64757.03183999999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1278211.84779</v>
+        <v>79313.91263999998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>139805.83206</v>
+        <v>169696.58826</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>142370.00053</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>141512.32667</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>194790.922</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5345.009489999999</v>
+        <v>7013.114910000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>7949.0846</v>
+        <v>9067.391790000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>8615.733789999998</v>
+        <v>7260.329009999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>20892.59244</v>
+        <v>14609.36114</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>12582.95261</v>
+        <v>13392.66848</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>20579.75273</v>
+        <v>24273.60286</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>21205.40909</v>
+        <v>37842.76251000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>36000.86905</v>
+        <v>33789.71792</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1249944.43484</v>
+        <v>55216.86768</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>61094.70901999999</v>
+        <v>72555.31763999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>77708.68005000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>76744.78632999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>123064.891</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>9254.424489999999</v>
+        <v>10261.67035</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>12854.50077</v>
+        <v>14178.72041</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>7493.77639</v>
+        <v>9520.928550000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>7443.62293</v>
+        <v>7587.770769999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>12678.39807</v>
+        <v>14430.18277</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>7298.83286</v>
+        <v>10051.8459</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>12456.42866</v>
+        <v>15798.43469</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>20179.39347</v>
+        <v>22324.36123</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>18122.96979</v>
+        <v>17878.51296</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>56592.27800999999</v>
+        <v>74718.64688</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>48740.73766999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>48806.88003</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>46410.37</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3850.23935</v>
+        <v>3662.19612</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>2834.94966</v>
+        <v>2527.10825</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1957.90289</v>
+        <v>2319.00199</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4520.46039</v>
+        <v>4435.35586</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5069.35603</v>
+        <v>5589.67661</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7639.21371</v>
+        <v>8378.791380000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>4469.993300000001</v>
+        <v>3842.70511</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>10430.71576</v>
+        <v>8642.95269</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>10144.44316</v>
+        <v>6218.531999999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>22118.84503</v>
+        <v>22422.62374</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>15920.58281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15960.66031</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>25315.661</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1120623.66888</v>
+        <v>1052707.73106</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1668785.01823</v>
+        <v>1548645.06202</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2696043.92653</v>
+        <v>2665082.87234</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3430377.12534</v>
+        <v>3285236.271069999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3598139.65346</v>
+        <v>3621782.32196</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4505093.1398</v>
+        <v>4292289.555349999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5653409.331030001</v>
+        <v>5470135.907499999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>6549204.569889999</v>
+        <v>6427730.14446</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8805120.397130001</v>
+        <v>8406022.86303</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>9894564.532430001</v>
+        <v>9686274.211890001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>11975124.89657</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11510289.97623</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15415187.44</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>955225.15085</v>
+        <v>873395.64599</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1464182.87443</v>
+        <v>1360273.24282</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2416344.51022</v>
+        <v>2364653.83333</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>3083810.66614</v>
+        <v>2942383.81798</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3250983.033029999</v>
+        <v>3236618.59946</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3992097.28646</v>
+        <v>3768126.120190001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>5004509.021320001</v>
+        <v>4811702.240960001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>5891259.76225</v>
+        <v>5762995.94546</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7871608.911899999</v>
+        <v>7498930.38096</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8686181.347610001</v>
+        <v>8394364.05906</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>10739738.06181</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10237831.84209</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>13718249.083</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>646808.3030800001</v>
+        <v>587086.9448999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>916717.4987199999</v>
+        <v>844859.4067200002</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1542470.86946</v>
+        <v>1511884.24134</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1901989.06168</v>
+        <v>1814242.9026</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1998896.29628</v>
+        <v>1988730.34163</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2581399.0931</v>
+        <v>2422998.546099999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3315453.11171</v>
+        <v>3191462.76138</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>3752931.26248</v>
+        <v>3706433.07227</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>4817796.24907</v>
+        <v>4577823.05331</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>5457208.03437</v>
+        <v>5332542.93524</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>6806700.58251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>6473907.99767</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>8619955.782</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>267613.29413</v>
+        <v>254503.37824</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>472237.57631</v>
+        <v>461561.25045</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>759474.7120400001</v>
+        <v>756681.22032</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1062621.84819</v>
+        <v>1018727.52152</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1134366.4884</v>
+        <v>1136576.93969</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1244545.48951</v>
+        <v>1191274.91544</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1498008.76289</v>
+        <v>1465358.20683</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1920758.7543</v>
+        <v>1864059.39579</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>2836371.64497</v>
+        <v>2717296.39486</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>3044782.88401</v>
+        <v>2865387.13548</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3663312.17275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3497386.10667</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>4701608.144</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>34189.72909</v>
+        <v>29316.17186</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>67564.07079</v>
+        <v>51709.58259</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>104314.3867</v>
+        <v>92836.02313</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>91663.30561</v>
+        <v>91802.63828</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>91933.58716</v>
+        <v>93509.47657</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>130112.68498</v>
+        <v>115708.39032</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>137474.576</v>
+        <v>118757.3313</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>174435.81282</v>
+        <v>147997.77955</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>148456.0244</v>
+        <v>136664.61602</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>144443.36832</v>
+        <v>153542.64119</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>197655.55509</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>179152.59919</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>278054.618</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6613.824549999999</v>
+        <v>2489.15099</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>7663.728609999999</v>
+        <v>2143.00306</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10084.54202</v>
+        <v>3252.34854</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>27536.45066</v>
+        <v>17610.75558</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>25786.66119</v>
+        <v>17801.84157</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>36040.01887</v>
+        <v>38144.26833</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>53572.57072</v>
+        <v>36123.94145</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>43133.93265</v>
+        <v>44505.69785</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>68984.99346000001</v>
+        <v>67146.31676999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>39747.06091000001</v>
+        <v>42891.34714999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>72069.75146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>87385.13855999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>118630.539</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>165398.51803</v>
+        <v>179312.08507</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>204602.1438</v>
+        <v>188371.8192</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>279699.4163100001</v>
+        <v>300429.0390099999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>346566.4592</v>
+        <v>342852.45309</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>347156.62043</v>
+        <v>385163.7224999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>512995.8533399999</v>
+        <v>524163.4351600001</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>648900.3097100001</v>
+        <v>658433.66654</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>657944.80764</v>
+        <v>664734.1989999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>933511.48523</v>
+        <v>907092.48207</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1208383.18482</v>
+        <v>1291910.15283</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1235386.83476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1272458.13414</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1696938.357</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>114466.10322</v>
+        <v>103673.29118</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>145050.93928</v>
+        <v>118282.10425</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>195755.11963</v>
+        <v>161612.64713</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>252785.86344</v>
+        <v>206091.12689</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>255678.57437</v>
+        <v>234867.87572</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>323529.19603</v>
+        <v>281801.63153</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>392853.8223100001</v>
+        <v>354513.83893</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>465011.67936</v>
+        <v>404621.65052</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>593337.4635900001</v>
+        <v>533185.7292999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>677570.45615</v>
+        <v>666548.87974</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>825911.81936</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>744721.55847</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>929533.279</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1645.93113</v>
+        <v>735.9012999999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1332.19147</v>
+        <v>1935.50124</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1375.03914</v>
+        <v>1265.44711</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1542.03952</v>
+        <v>1809.33785</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>381.34668</v>
+        <v>646.0949400000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>458.5806200000001</v>
+        <v>1832.51901</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>5480.78517</v>
+        <v>7434.37892</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>3316.328849999999</v>
+        <v>7932.815799999999</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>12469.17481</v>
+        <v>16112.53785</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>24939.79358</v>
+        <v>26575.76012</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>27919.11194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>27137.4336</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>33975.157</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>45886.95623</v>
+        <v>47220.23138999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>48642.85479999999</v>
+        <v>46013.53384</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>66560.26048</v>
+        <v>63637.27545</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>83707.73596999999</v>
+        <v>81127.85674</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>97597.43382000001</v>
+        <v>107660.83856</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>114639.61762</v>
+        <v>115206.79008</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>123298.30978</v>
+        <v>124947.60303</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>148898.99794</v>
+        <v>148755.58271</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>195323.10576</v>
+        <v>196162.38633</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>302935.0303400001</v>
+        <v>318657.34915</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>349808.30748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>332003.93295</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>427685.396</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>66933.21586</v>
+        <v>55717.15848999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>95075.89300999999</v>
+        <v>70333.06917</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>127819.82001</v>
+        <v>96709.92457</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>167536.08795</v>
+        <v>123153.9323</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>157699.79387</v>
+        <v>126560.94222</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>208430.99779</v>
+        <v>164762.32244</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>264074.72736</v>
+        <v>222131.85698</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>312796.35257</v>
+        <v>247933.25201</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>385545.1830200001</v>
+        <v>320910.80512</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>349695.63223</v>
+        <v>321315.77047</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>448184.39994</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>385580.19192</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>467872.726</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>50932.41481</v>
+        <v>75638.79389</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>59551.20452</v>
+        <v>70089.71494999999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>83944.29668000001</v>
+        <v>138816.39188</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>93780.59576000001</v>
+        <v>136761.3262</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>91478.04606000001</v>
+        <v>150295.84678</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>189466.65731</v>
+        <v>242361.80363</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>256046.4874</v>
+        <v>303919.82761</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>192933.12828</v>
+        <v>260112.54848</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>340174.02164</v>
+        <v>373906.75277</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>530812.72867</v>
+        <v>625361.27309</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>409475.0154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>527736.57567</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>767405.078</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>40320.65512</v>
+        <v>36411.27</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>48075.7374</v>
+        <v>60088.50279999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>60586.68540000001</v>
+        <v>72924.33214</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>65987.09174</v>
+        <v>88496.11275999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>82258.44706999999</v>
+        <v>110025.94682</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>93365.81982</v>
+        <v>122550.04109</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>133200.54294</v>
+        <v>177519.527</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>132002.23943</v>
+        <v>204459.03621</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>181402.29744</v>
+        <v>191410.83607</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>538644.09283</v>
+        <v>605959.40126</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>400450.76843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>408098.44751</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>605828.556</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>1967.23286</v>
+        <v>11.79471</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3026.57236</v>
+        <v>684.38221</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2703.47837</v>
+        <v>809.18849</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4993.76123</v>
+        <v>4893.14284</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4749.646060000001</v>
+        <v>654.60904</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1418.44481</v>
+        <v>560.9941699999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>1754.31001</v>
+        <v>32097.74231</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3744.2146</v>
+        <v>1184.96975</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1715.60256</v>
+        <v>6616.14769</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>20016.13872</v>
+        <v>6112.60888</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>17753.34745</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>372.37729</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>5705.896</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,19 +1833,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>5.661359999999999</v>
+        <v>26791.99384</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>127.26113</v>
+        <v>29712.95308</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>8.960319999999999</v>
+        <v>10654.63892</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>10835.3517</v>
+        <v>2894.12947</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>5740.03202</v>
+        <v>12.61072</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1840,206 +1856,236 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3568.019</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>5435.13888</v>
+        <v>5009.54975</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>6437.75341</v>
+        <v>6682.405410000001</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8519.989800000001</v>
+        <v>7681.979359999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>10472.19425</v>
+        <v>13501.75061</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>13908.66263</v>
+        <v>7728.50398</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>17863.73296</v>
+        <v>11811.98275</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>18977.97018</v>
+        <v>23972.15104</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>17402.74467</v>
+        <v>34469.91663</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>27356.93016</v>
+        <v>22903.42384</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>53189.21447000001</v>
+        <v>51228.44321</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>54962.30163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>45383.78502</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>41001.624</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>182.22021</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>953.02823</v>
+        <v>888.53255</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>3309.3607</v>
+        <v>3181.31003</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>356.35102</v>
+        <v>1623.13294</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>205.64676</v>
+        <v>150.68345</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>449.85613</v>
+        <v>748.77102</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>418.86426</v>
+        <v>516.8920000000001</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>2701.2447</v>
+        <v>3103.297579999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>733.78748</v>
+        <v>713.76413</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>340.24651</v>
+        <v>81.61167999999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>130.40893</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>119.81663</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>167.6</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>597.3162</v>
+        <v>588.3661999999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>624.89977</v>
+        <v>494.93173</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>789.52692</v>
+        <v>4014.64543</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>579.57176</v>
+        <v>630.00299</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>775.98938</v>
+        <v>1090.00242</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1535.15067</v>
+        <v>1186.54874</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1713.03386</v>
+        <v>1214.37067</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2965.9184</v>
+        <v>2335.40065</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3565.66005</v>
+        <v>4334.97748</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>4729.08065</v>
+        <v>7839.084339999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6244.47636</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6682.945629999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>6853.807</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>312.67381</v>
+        <v>277.55276</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>298.82443</v>
+        <v>252.8398900000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>435.59345</v>
+        <v>325.9735</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>640.77199</v>
+        <v>471.34347</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>874.9556700000001</v>
+        <v>713.2569599999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>925.5926999999999</v>
+        <v>1007.83407</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1794.04377</v>
+        <v>1687.81856</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1399.99719</v>
+        <v>572.56384</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2307.38358</v>
+        <v>1560.24623</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2245.1106</v>
+        <v>1389.25836</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6118.60179</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>642.6356000000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3578.268</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>21020.47435</v>
+        <v>25982.49406</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>20617.90963</v>
+        <v>41228.62002999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>30365.50733</v>
+        <v>45031.13777</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>23075.11506</v>
+        <v>25300.01269</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>26822.99163</v>
+        <v>46404.86775</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>30336.84221</v>
+        <v>68294.89136999998</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>52810.60745000001</v>
+        <v>74104.42331</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>46479.67429000001</v>
+        <v>120192.09864</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>72861.28769</v>
+        <v>89759.12611</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>377790.51613</v>
+        <v>473371.06302</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>213002.94306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>266233.94063</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>409575.783</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>20.64091</v>
@@ -2051,10 +2097,10 @@
         <v>209.65223</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>33.20800999999999</v>
+        <v>30.36584</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>644.09433</v>
+        <v>622.33106</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>835.3242899999999</v>
@@ -2063,22 +2109,27 @@
         <v>889.8673100000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>16.57776</v>
+        <v>131.80636</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>158.89647</v>
+        <v>244.07123</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>606.71163</v>
+        <v>962.2538900000001</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>5503.39913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>6122.10453</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>15544.772</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2087,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>34.02072</v>
+        <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>10.66492</v>
@@ -2096,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>693.8917299999999</v>
+        <v>0</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>73.37217999999999</v>
+        <v>24.07359</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>7.39497</v>
@@ -2108,289 +2159,329 @@
         <v>1.74672</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1219.95773</v>
+        <v>1219.95766</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>10784.9579</v>
+        <v>4338.651400000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>16116.74957</v>
+        <v>9856.79098</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>14219.55588</v>
+        <v>11670.44533</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>25819.79214</v>
+        <v>15243.70262</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>34149.19948</v>
+        <v>22948.73908</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>39298.024</v>
+        <v>27449.05576</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>43933.12222</v>
+        <v>40118.05873999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>51544.44083</v>
+        <v>42448.97707</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>72701.00272999999</v>
+        <v>65277.33264000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>78507.11638999998</v>
+        <v>63755.12022</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>96735.29007999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>82540.84218000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>119832.787</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>35521.53659</v>
+        <v>45854.87406</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>31198.80973</v>
+        <v>45192.83528</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>51252.21183</v>
+        <v>106525.90328</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>41391.49877</v>
+        <v>37289.37561</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>66894.75839</v>
+        <v>118812.27532</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>70012.92269999998</v>
+        <v>101206.65751</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>94087.18169999999</v>
+        <v>137422.05092</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>96536.02639</v>
+        <v>185050.11397</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>133360.54303</v>
+        <v>167205.669</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>562233.09856</v>
+        <v>613770.14492</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>322884.22068</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>383656.06916</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>488403.229</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>124.6746</v>
+        <v>193.47059</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>273.3415900000001</v>
+        <v>692.1979</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>495.26313</v>
+        <v>1025.72603</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>366.6523900000001</v>
+        <v>335.51203</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>900.6596699999999</v>
+        <v>1927.29615</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1066.67546</v>
+        <v>1265.61508</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1821.96813</v>
+        <v>1989.93854</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1405.99429</v>
+        <v>938.62934</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1759.28593</v>
+        <v>1310.7516</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1657.45445</v>
+        <v>13731.71329</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2000.85651</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7044.32273</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>11184.924</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>6250.91597</v>
+        <v>6183.92711</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>3610.53592</v>
+        <v>3305.32049</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2756.13278</v>
+        <v>2257.18977</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>10048.27628</v>
+        <v>8470.96653</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5638.70641</v>
+        <v>5826.14194</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12975.64927</v>
+        <v>12743.8607</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>10266.17287</v>
+        <v>11490.4511</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>22909.84066</v>
+        <v>24875.68948</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>17917.73412</v>
+        <v>17689.80102</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>19032.96668</v>
+        <v>25949.14565000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>24822.18523</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>23775.76031</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>29076.764</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>0.54671</v>
+        <v>0.26422</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1122.86609</v>
+        <v>6.20724</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>105.87801</v>
+        <v>91.03726</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2445.76394</v>
+        <v>154.85437</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>365.78939</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1031.78328</v>
+        <v>500.17966</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>158.45015</v>
+        <v>124.70869</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>844.54391</v>
+        <v>146.08727</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>3626.28488</v>
+        <v>3375.49233</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>6290.89543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>578.86011</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>68.077</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>24044.85875</v>
+        <v>28822.03581</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>22771.12448999999</v>
+        <v>37879.13983</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>40460.45494999999</v>
+        <v>98378.47963</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>22263.66785</v>
+        <v>20438.98323</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>43004.90133000001</v>
+        <v>102107.17308</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>34139.24096</v>
+        <v>75981.21279999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>63857.80278</v>
+        <v>109134.9475</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>59494.33775999999</v>
+        <v>140640.69913</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>96473.71144000001</v>
+        <v>123488.78409</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>477532.58248</v>
+        <v>539119.84024</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>240769.64813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>303557.20719</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>378945.916</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>17.23148</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0.85423</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>1.38211</v>
+        <v>1.30293</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>163.86856</v>
+        <v>160.62487</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1363.0457</v>
+        <v>1202.3384</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>854.4665399999999</v>
+        <v>840.38473</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>341.6888500000001</v>
+        <v>326.77398</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>41.24259000000001</v>
+        <v>1787.81263</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1274.12744</v>
+        <v>1425.35115</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>807.7440799999999</v>
+        <v>3931.6271</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>7141.09422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>7591.63059</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>16522.8</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>318.41617</v>
+        <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2417,601 +2508,679 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>12.15194</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>29.88143</v>
+        <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5083.30908</v>
+        <v>10655.17633</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>4542.9535</v>
+        <v>3315.32283</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>6416.112769999999</v>
+        <v>4856.997679999999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8124.739510000001</v>
+        <v>7792.251689999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>13541.68134</v>
+        <v>7594.471380000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>20611.10108</v>
+        <v>10009.79481</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16760.03802</v>
+        <v>13972.03237</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>12526.16094</v>
+        <v>16682.5747</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>15078.98825</v>
+        <v>23144.89387</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>59546.18455999999</v>
+        <v>27662.32631</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41859.54115999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>41108.28823</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>52604.748</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>37504.73415</v>
+        <v>40670.26131</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>34723.28477000001</v>
+        <v>35787.82094</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>51486.45026000001</v>
+        <v>51667.59397</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>82588.05800000002</v>
+        <v>74530.44215</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>88943.86649000001</v>
+        <v>93667.39869000002</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>135034.59326</v>
+        <v>142415.35076</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>153591.92063</v>
+        <v>192033.9173</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>191234.42037</v>
+        <v>169711.81785</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>255361.40719</v>
+        <v>231451.23159</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>384432.85161</v>
+        <v>388346.91665</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>440228.87835</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>434877.61883</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>424651.783</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>34625.35544</v>
+        <v>27562.52474</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>32408.09295</v>
+        <v>26895.65305</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>46736.45762000002</v>
+        <v>38270.5705</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>75018.88138999998</v>
+        <v>63716.09973</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>74493.06234999999</v>
+        <v>78182.54139</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>117488.51254</v>
+        <v>109568.93354</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>135111.37705</v>
+        <v>134255.34784</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>164832.72011</v>
+        <v>143952.90407</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>218087.24776</v>
+        <v>194716.01534</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>289895.62031</v>
+        <v>329920.94118</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>363983.61101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>371438.59898</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>353804.939</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2879.37871</v>
+        <v>13107.73657</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2315.19182</v>
+        <v>8892.167890000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4749.99264</v>
+        <v>13397.02347</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7569.17661</v>
+        <v>10814.34242</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>14450.80414</v>
+        <v>15484.8573</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>17546.08072</v>
+        <v>32846.41722</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>18480.54358000001</v>
+        <v>57778.56946</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>26401.70026</v>
+        <v>25758.91378</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>37274.15943</v>
+        <v>36735.21625</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>94537.2313</v>
+        <v>58425.97547</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>76245.26734000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>63439.01985</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>70846.844</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>18226.79919</v>
+        <v>25524.92852</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>41704.84742</v>
+        <v>49197.56153</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>41792.31999</v>
+        <v>53547.22676999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>35788.13073</v>
+        <v>113437.6212</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>17897.86825</v>
+        <v>47842.11958999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>77784.96117000001</v>
+        <v>121289.83645</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>141567.92801</v>
+        <v>151983.38639</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>37164.92095</v>
+        <v>109809.65287</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>132854.36886</v>
+        <v>166660.68825</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>122790.87133</v>
+        <v>229203.61278</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>46812.68479999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>117301.33519</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>460178.622</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>21036.44381</v>
+        <v>12460.96516</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>20822.24689</v>
+        <v>11161.10863</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>25595.83315999999</v>
+        <v>20420.00364</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>48345.24771</v>
+        <v>30238.60464</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>58580.18818</v>
+        <v>36083.80143</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>66424.92257</v>
+        <v>34205.55935</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>61343.4737</v>
+        <v>48552.95155999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>92306.89663999999</v>
+        <v>73310.33951999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>100045.11253</v>
+        <v>71224.03009999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>134839.49698</v>
+        <v>107241.42378</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>164627.12096</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>150030.58758</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>176534.075</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>65.57459</v>
+        <v>25.81664</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>203.62773</v>
+        <v>1243.52176</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>198.6385</v>
+        <v>736.26315</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3011.6074</v>
+        <v>3293.1244</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>929.3066200000001</v>
+        <v>516.17486</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>5780.48289</v>
+        <v>2493.65602</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1254.39451</v>
+        <v>946.2021100000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>317.8402</v>
+        <v>185.16903</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>452.14554</v>
+        <v>767.65464</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>157.97829</v>
+        <v>10.66114</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>831.7679399999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>2224.03157</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11891.346</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>20970.86922</v>
+        <v>12435.14852</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>20618.61916</v>
+        <v>9917.586869999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>25397.19466</v>
+        <v>19683.74049</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>45333.64031</v>
+        <v>26945.48024</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>57650.88156</v>
+        <v>35567.62656999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>60644.43968</v>
+        <v>31711.90333</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>60089.07919</v>
+        <v>47606.74945</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>91989.05643999999</v>
+        <v>73125.17049</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>99592.96698999999</v>
+        <v>70456.37546</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>134681.51869</v>
+        <v>107230.76264</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>163795.35302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>147806.55601</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>164642.729</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>15916.51975</v>
+        <v>14668.88293</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>12616.99904</v>
+        <v>6713.970560000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>53530.26349</v>
+        <v>54021.77</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>43012.5998</v>
+        <v>41450.72423000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>40785.69987</v>
+        <v>36124.22272</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>62707.61998</v>
+        <v>45746.58479</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>70777.76454</v>
+        <v>78992.94314</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>86988.6422</v>
+        <v>91433.56989999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>84267.85178999999</v>
+        <v>79377.44086</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>103245.00371</v>
+        <v>87843.49718999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>128988.46375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>122527.20112</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>166833.34</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2603.31346</v>
+        <v>1058.9793</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2568.52649</v>
+        <v>376.21528</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1635.55113</v>
+        <v>1115.20038</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>5224.944120000001</v>
+        <v>418.39564</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2198.43174</v>
+        <v>1758.29145</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2905.25187</v>
+        <v>3699.0119</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>9585.560979999998</v>
+        <v>11818.80188</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6223.03541</v>
+        <v>7056.16332</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4302.066380000001</v>
+        <v>7787.12866</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>9873.124380000001</v>
+        <v>10939.45959</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>8260.880300000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>8924.924100000002</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>19895.547</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>170.52971</v>
+        <v>102.80104</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>301.09431</v>
+        <v>262.27029</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>470.40837</v>
+        <v>846.4145100000002</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>3717.78282</v>
+        <v>3261.921560000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3043.8985</v>
+        <v>2376.939690000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3370.89946</v>
+        <v>749.29747</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>757.48762</v>
+        <v>801.0430699999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3005.45937</v>
+        <v>3987.45476</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5027.67987</v>
+        <v>4569.0188</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2023.57378</v>
+        <v>1942.76719</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9070.89428</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>8344.083909999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3828.164</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>13142.67658</v>
+        <v>13507.10259</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>9747.378239999998</v>
+        <v>6075.48499</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>51424.30399</v>
+        <v>52060.15511</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>34069.87286</v>
+        <v>37770.40703000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>35543.36962999999</v>
+        <v>31988.99158000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>56431.46865</v>
+        <v>41298.27542000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>60434.71593999999</v>
+        <v>66373.09819</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>77760.14742000001</v>
+        <v>80389.95181999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>74938.10553999999</v>
+        <v>67021.2934</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>91348.30554999998</v>
+        <v>74961.27041</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>111656.68917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>105258.19311</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>143109.629</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>23346.72325</v>
+        <v>23317.01075</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>49910.09527000001</v>
+        <v>53644.69959999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>13857.88966</v>
+        <v>19945.46041000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>41120.77864</v>
+        <v>102225.50161</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>35692.35656</v>
+        <v>47801.69830000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>81502.26376</v>
+        <v>109748.81101</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>132133.63717</v>
+        <v>121543.39481</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>42483.17539000001</v>
+        <v>91686.42249000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>148631.6296</v>
+        <v>158507.27749</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>154385.3646</v>
+        <v>248601.53937</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>82451.34201000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>144804.72165</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>469879.357</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>10687.53002</v>
+        <v>9923.765519999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>12501.73802</v>
+        <v>11370.52077</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>17679.67728</v>
+        <v>19583.8588</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>19402.37618</v>
+        <v>21126.13958</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>20316.42464</v>
+        <v>19320.01404</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>29467.24027</v>
+        <v>27685.38634</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35230.38873000001</v>
+        <v>35556.59047</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>37193.0157</v>
+        <v>38322.44853</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>48427.44776</v>
+        <v>46294.37542</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>63792.62456</v>
+        <v>74593.66163000002</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>61740.19308</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>58627.56214</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>108932.124</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>12659.19323</v>
+        <v>13393.24523</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>37408.35725</v>
+        <v>42274.17883</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-3821.787619999996</v>
+        <v>361.6016099999974</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>21718.40246</v>
+        <v>81099.36203</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>15375.93192</v>
+        <v>28481.68425999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>52035.02348999999</v>
+        <v>82063.42467000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>96903.24844</v>
+        <v>85986.80434</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>5290.159690000001</v>
+        <v>53363.97396</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>100204.18184</v>
+        <v>112212.90207</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>90592.74003999998</v>
+        <v>174007.87774</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>20711.14893</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>86177.15951</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>360947.233</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>388</v>
+        <v>221</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>483</v>
+        <v>255</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>343</v>
+        <v>208</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>493</v>
+        <v>287</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>605</v>
+        <v>345</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>738</v>
+        <v>416</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>242</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>